--- a/GPRO_IED_A/obj/Release/Package/PackageTmp/ReportTemplates/using_tech_template.xlsx
+++ b/GPRO_IED_A/obj/Release/Package/PackageTmp/ReportTemplates/using_tech_template.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">BÁO  CÁO  TƯƠNG TÁC    PHẦN MỀM  QUẢN LÝ    QT/ CÔNG ĐOẠN  CHUẨN   TỪ  DATA </t>
   </si>
@@ -33,23 +31,41 @@
     <t>%</t>
   </si>
   <si>
-    <t xml:space="preserve">TỔNG SL CÔNG ĐOẠN  ĐƯỢC PHÂN TÍCH </t>
-  </si>
-  <si>
     <t xml:space="preserve">TỔNG  CĐ ĐƯỢC TƯƠNG TÁC </t>
   </si>
   <si>
-    <t xml:space="preserve"> TỔNG  SỐ LƯỢNG  CĐ  MỚI / THÁNG </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi chú </t>
+  </si>
+  <si>
+    <t>LƯỢT XEM</t>
+  </si>
+  <si>
+    <t>LƯỢT TẢI</t>
+  </si>
+  <si>
+    <t>* Chú ý: Những công đoạn được thống kê trên báo cáo là công đoạn đã được duyệt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TỔNG  SỐ LƯỢNG  CĐ  DUYỆT MỚI / THÁNG </t>
+  </si>
+  <si>
+    <t>ĐÃ PHÂN TÍCH</t>
+  </si>
+  <si>
+    <t>CHỜ DUYỆT</t>
+  </si>
+  <si>
+    <t>ĐÃ DUYỆT</t>
+  </si>
+  <si>
+    <t>TỔNG SL CÔNG ĐOẠN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +73,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -130,21 +165,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,702 +495,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K167"/>
+  <dimension ref="A2:O168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B3" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="24.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="5"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="5"/>
     </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>